--- a/MPTrx/_MBO Stage Contract.xlsx
+++ b/MPTrx/_MBO Stage Contract.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703"/>
   </bookViews>
   <sheets>
     <sheet name="#Scopes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
   <si>
     <t>Scope</t>
   </si>
@@ -96,9 +96,6 @@
     <t>[Organization,]</t>
   </si>
   <si>
-    <t>TParty</t>
-  </si>
-  <si>
     <t>[TParties]</t>
   </si>
   <si>
@@ -108,12 +105,6 @@
     <t>[Concerns]</t>
   </si>
   <si>
-    <t>Concern</t>
-  </si>
-  <si>
-    <t>MPTrx</t>
-  </si>
-  <si>
     <t>mptrxObjName</t>
   </si>
   <si>
@@ -349,6 +340,12 @@
   </si>
   <si>
     <t xml:space="preserve">De (digitale) [SchoolHandtekening] </t>
+  </si>
+  <si>
+    <t>ttIsaParty</t>
+  </si>
+  <si>
+    <t>ttIsaConcern</t>
   </si>
 </sst>
 </file>
@@ -797,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>2</v>
@@ -821,15 +818,15 @@
         <v>3</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>5</v>
@@ -840,22 +837,23 @@
       <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>19</v>
+      <c r="E2" s="19" t="str">
+        <f>$A2</f>
+        <v>Scope</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -866,126 +864,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="19" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18" style="13" customWidth="1"/>
-    <col min="4" max="4" width="61.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="13" customWidth="1"/>
+    <col min="1" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="19" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18" style="13" customWidth="1"/>
+    <col min="5" max="5" width="61.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="str">
+        <f>IF($A2="","",$A2)</f>
+        <v>TText</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
-        <f>IF(OR($B3="",$C3=""),"",CONCATENATE("SHR_",$B3,"_",$C3))</f>
+        <f>IF(OR($C3="",$D3=""),"",CONCATENATE("SHR_",$C3,"_",$D3))</f>
         <v>SHR_MBOSC_Student</v>
       </c>
       <c r="B3" s="20" t="str">
-        <f>IF($C3="","",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C3" s="7" t="s">
+        <f>IF($A3="","",$A3)</f>
+        <v>SHR_MBOSC_Student</v>
+      </c>
+      <c r="C3" s="20" t="str">
+        <f>IF($D3="","",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
-        <f>IF(OR($B4="",$C4=""),"",CONCATENATE("SHR_",$B4,"_",$C4))</f>
+        <f>IF(OR($C4="",$D4=""),"",CONCATENATE("SHR_",$C4,"_",$D4))</f>
         <v>SHR_MBOSC_Mentor</v>
       </c>
       <c r="B4" s="20" t="str">
-        <f>IF($C4="","",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <f t="shared" ref="B4:B6" si="0">IF($A4="","",$A4)</f>
+        <v>SHR_MBOSC_Mentor</v>
+      </c>
+      <c r="C4" s="20" t="str">
+        <f>IF($D4="","",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="str">
+        <f t="shared" ref="A5:A6" si="1">IF(OR($C5="",$D5=""),"",CONCATENATE("SHR_",$C5,"_",$D5))</f>
+        <v>SHR_MBOSC_Bedrijfsbegeleider</v>
+      </c>
+      <c r="B5" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>SHR_MBOSC_Bedrijfsbegeleider</v>
+      </c>
+      <c r="C5" s="20" t="str">
+        <f>IF($D5="","",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SHR_MBOSC_WV</v>
+      </c>
+      <c r="B6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>SHR_MBOSC_WV</v>
+      </c>
+      <c r="C6" s="20" t="str">
+        <f>IF($D6="","",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="str">
-        <f t="shared" ref="A5:A6" si="0">IF(OR($B5="",$C5=""),"",CONCATENATE("SHR_",$B5,"_",$C5))</f>
-        <v>SHR_MBOSC_Bedrijfsbegeleider</v>
-      </c>
-      <c r="B5" s="20" t="str">
-        <f>IF($C5="","",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>SHR_MBOSC_WV</v>
-      </c>
-      <c r="B6" s="20" t="str">
-        <f>IF($C6="","",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -995,377 +1016,460 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="86.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="86.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="str">
+        <f>IF($A2="","",$A2)</f>
+        <v>TText</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f t="shared" ref="A3:A21" si="0">IF(OR($B3="",$C3=""),"",CONCATENATE("Conc_",$B3,"_",$C3))</f>
+        <f t="shared" ref="A3:B21" si="0">IF(OR($C3="",$D3=""),"",CONCATENATE("Conc_",$C3,"_",$D3))</f>
         <v>Conc_MBOSC_Stageplaats organiseren</v>
       </c>
-      <c r="B3" s="14" t="str">
-        <f>IF(AND($E3="",$C3=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="16" t="str">
+        <f t="shared" ref="B3:B21" si="1">IF($A3="","",$A3)</f>
+        <v>Conc_MBOSC_Stageplaats organiseren</v>
+      </c>
+      <c r="C3" s="14" t="str">
+        <f>IF(AND($F3="",$D3=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_getekend stagecontract</v>
+      </c>
+      <c r="B4" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_getekend stagecontract</v>
+      </c>
+      <c r="C4" s="14" t="str">
+        <f>IF(AND($F4="",$D4=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_stagecontract is volledig</v>
+      </c>
+      <c r="B5" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_stagecontract is volledig</v>
+      </c>
+      <c r="C5" s="14" t="str">
+        <f>IF(AND($F5="",$D5=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_getekend door de school</v>
+      </c>
+      <c r="B6" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_getekend door de school</v>
+      </c>
+      <c r="C6" s="14" t="str">
+        <f>IF(AND($F6="",$D6=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_getekend door het bedrijf</v>
+      </c>
+      <c r="B7" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_getekend door het bedrijf</v>
+      </c>
+      <c r="C7" s="14" t="str">
+        <f>IF(AND($F7="",$D7=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_getekend door de student</v>
+      </c>
+      <c r="B8" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_getekend door de student</v>
+      </c>
+      <c r="C8" s="14" t="str">
+        <f>IF(AND($F8="",$D8=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B9" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C9" s="14" t="str">
+        <f>IF(AND($F9="",$D9=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B10" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C10" s="14" t="str">
+        <f>IF(AND($F10="",$D10=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B11" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C11" s="14" t="str">
+        <f>IF(AND($F11="",$D11=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_Studentgegevens</v>
+      </c>
+      <c r="B12" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_Studentgegevens</v>
+      </c>
+      <c r="C12" s="14" t="str">
+        <f>IF(AND($F12="",$D12=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_Schoolgegevens</v>
+      </c>
+      <c r="B13" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_Schoolgegevens</v>
+      </c>
+      <c r="C13" s="14" t="str">
+        <f>IF(AND($F13="",$D13=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_Bedrijfsgegevens</v>
+      </c>
+      <c r="B14" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_Bedrijfsgegevens</v>
+      </c>
+      <c r="C14" s="14" t="str">
+        <f>IF(AND($F14="",$D14=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_Stageperiode</v>
+      </c>
+      <c r="B15" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_Stageperiode</v>
+      </c>
+      <c r="C15" s="14" t="str">
+        <f>IF(AND($F15="",$D15=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_Stageplaats</v>
+      </c>
+      <c r="B16" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_Stageplaats</v>
+      </c>
+      <c r="C16" s="14" t="str">
+        <f>IF(AND($F16="",$D16=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_Urenverantwoording</v>
+      </c>
+      <c r="B17" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_Urenverantwoording</v>
+      </c>
+      <c r="C17" s="14" t="str">
+        <f>IF(AND($F17="",$D17=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B18" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C18" s="14" t="str">
+        <f>IF(AND($F18="",$D18=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_Bereikbaarheid stagebeleider</v>
+      </c>
+      <c r="B19" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_Bereikbaarheid stagebeleider</v>
+      </c>
+      <c r="C19" s="14" t="str">
+        <f>IF(AND($F19="",$D19=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_Ondertekening (Bedrijf)</v>
+      </c>
+      <c r="B20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_Ondertekening (Bedrijf)</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <f>IF(AND($F20="",$D20=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_getekend stagecontract</v>
-      </c>
-      <c r="B4" s="14" t="str">
-        <f>IF(AND($E4="",$C4=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_stagecontract is volledig</v>
-      </c>
-      <c r="B5" s="14" t="str">
-        <f>IF(AND($E5="",$C5=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_getekend door de school</v>
-      </c>
-      <c r="B6" s="14" t="str">
-        <f>IF(AND($E6="",$C6=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_getekend door het bedrijf</v>
-      </c>
-      <c r="B7" s="14" t="str">
-        <f>IF(AND($E7="",$C7=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_getekend door de student</v>
-      </c>
-      <c r="B8" s="14" t="str">
-        <f>IF(AND($E8="",$C8=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B9" s="14" t="str">
-        <f>IF(AND($E9="",$C9=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B10" s="14" t="str">
-        <f>IF(AND($E10="",$C10=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B11" s="14" t="str">
-        <f>IF(AND($E11="",$C11=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Studentgegevens</v>
-      </c>
-      <c r="B12" s="14" t="str">
-        <f>IF(AND($E12="",$C12=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Schoolgegevens</v>
-      </c>
-      <c r="B13" s="14" t="str">
-        <f>IF(AND($E13="",$C13=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Bedrijfsgegevens</v>
-      </c>
-      <c r="B14" s="14" t="str">
-        <f>IF(AND($E14="",$C14=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Stageperiode</v>
-      </c>
-      <c r="B15" s="14" t="str">
-        <f>IF(AND($E15="",$C15=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_MBOSC_Mentor bereikbaarheid</v>
+      </c>
+      <c r="B21" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_MBOSC_Mentor bereikbaarheid</v>
+      </c>
+      <c r="C21" s="14" t="str">
+        <f>IF(AND($F21="",$D21=""),"",'#Scopes'!$A$3)</f>
+        <v>MBOSC</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Stageplaats</v>
-      </c>
-      <c r="B16" s="14" t="str">
-        <f>IF(AND($E16="",$C16=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Urenverantwoording</v>
-      </c>
-      <c r="B17" s="14" t="str">
-        <f>IF(AND($E17="",$C17=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B18" s="14" t="str">
-        <f>IF(AND($E18="",$C18=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Bereikbaarheid stagebeleider</v>
-      </c>
-      <c r="B19" s="14" t="str">
-        <f>IF(AND($E19="",$C19=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Ondertekening (Bedrijf)</v>
-      </c>
-      <c r="B20" s="14" t="str">
-        <f>IF(AND($E20="",$C20=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Mentor bereikbaarheid</v>
-      </c>
-      <c r="B21" s="14" t="str">
-        <f>IF(AND($E21="",$C21=""),"",'#Scopes'!$A$3)</f>
-        <v>MBOSC</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1471,13 +1575,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1491,13 +1595,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1511,13 +1615,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1530,13 +1634,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1549,13 +1653,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1570,13 +1674,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1591,13 +1695,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1611,13 +1715,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1630,13 +1734,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1649,13 +1753,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1671,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1690,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1709,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1728,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1839,10 +1943,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1868,10 +1972,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1897,34 +2001,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_MBO Stage Contract.xlsx
+++ b/MPTrx/_MBO Stage Contract.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#Scopes" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>tPartyReqdOrg</t>
   </si>
   <si>
-    <t>[Concerns]</t>
-  </si>
-  <si>
     <t>mptrxObjName</t>
   </si>
   <si>
@@ -345,7 +342,10 @@
     <t>ttIsaParty</t>
   </si>
   <si>
-    <t>ttIsaConcern</t>
+    <t>ttIsaObjective</t>
+  </si>
+  <si>
+    <t>[Objectives]</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -809,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>2</v>
@@ -818,10 +818,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -844,16 +844,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>7</v>
@@ -894,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>15</v>
@@ -937,10 +937,10 @@
         <v>MBOSC</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -959,10 +959,10 @@
         <v>MBOSC</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="13"/>
@@ -981,10 +981,10 @@
         <v>MBOSC</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
@@ -1003,10 +1003,10 @@
         <v>MBOSC</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1018,13 +1018,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="13" customWidth="1"/>
@@ -1033,10 +1034,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>7</v>
@@ -1074,143 +1075,143 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f t="shared" ref="A3:B21" si="0">IF(OR($C3="",$D3=""),"",CONCATENATE("Conc_",$C3,"_",$D3))</f>
-        <v>Conc_MBOSC_Stageplaats organiseren</v>
+        <f>IF(OR($C3="",$D3=""),"",CONCATENATE("Obj_",$C3,"_",$D3))</f>
+        <v>Obj_MBOSC_Stageplaats organiseren</v>
       </c>
       <c r="B3" s="16" t="str">
-        <f t="shared" ref="B3:B21" si="1">IF($A3="","",$A3)</f>
-        <v>Conc_MBOSC_Stageplaats organiseren</v>
+        <f t="shared" ref="B3:B21" si="0">IF($A3="","",$A3)</f>
+        <v>Obj_MBOSC_Stageplaats organiseren</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>IF(AND($F3="",$D3=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_getekend stagecontract</v>
+        <f t="shared" ref="A4:A21" si="1">IF(OR($C4="",$D4=""),"",CONCATENATE("Obj_",$C4,"_",$D4))</f>
+        <v>Obj_MBOSC_getekend stagecontract</v>
       </c>
       <c r="B4" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_getekend stagecontract</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_getekend stagecontract</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>IF(AND($F4="",$D4=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
         <v>89</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_stagecontract is volledig</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_stagecontract is volledig</v>
       </c>
       <c r="B5" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_stagecontract is volledig</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_stagecontract is volledig</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>IF(AND($F5="",$D5=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_getekend door de school</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_getekend door de school</v>
       </c>
       <c r="B6" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_getekend door de school</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_getekend door de school</v>
       </c>
       <c r="C6" s="14" t="str">
         <f>IF(AND($F6="",$D6=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_getekend door het bedrijf</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_getekend door het bedrijf</v>
       </c>
       <c r="B7" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_getekend door het bedrijf</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_getekend door het bedrijf</v>
       </c>
       <c r="C7" s="14" t="str">
         <f>IF(AND($F7="",$D7=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_getekend door de student</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_getekend door de student</v>
       </c>
       <c r="B8" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_getekend door de student</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_getekend door de student</v>
       </c>
       <c r="C8" s="14" t="str">
         <f>IF(AND($F8="",$D8=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B9" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C9" s="14" t="str">
@@ -1221,11 +1222,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B10" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C10" s="14" t="str">
@@ -1236,11 +1237,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B11" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C11" s="14" t="str">
@@ -1251,149 +1252,149 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Studentgegevens</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_Studentgegevens</v>
       </c>
       <c r="B12" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_Studentgegevens</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_Studentgegevens</v>
       </c>
       <c r="C12" s="14" t="str">
         <f>IF(AND($F12="",$D12=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Schoolgegevens</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_Schoolgegevens</v>
       </c>
       <c r="B13" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_Schoolgegevens</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_Schoolgegevens</v>
       </c>
       <c r="C13" s="14" t="str">
         <f>IF(AND($F13="",$D13=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Bedrijfsgegevens</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_Bedrijfsgegevens</v>
       </c>
       <c r="B14" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_Bedrijfsgegevens</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_Bedrijfsgegevens</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>IF(AND($F14="",$D14=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Stageperiode</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_Stageperiode</v>
       </c>
       <c r="B15" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_Stageperiode</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_Stageperiode</v>
       </c>
       <c r="C15" s="14" t="str">
         <f>IF(AND($F15="",$D15=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Stageplaats</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_Stageplaats</v>
       </c>
       <c r="B16" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_Stageplaats</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_Stageplaats</v>
       </c>
       <c r="C16" s="14" t="str">
         <f>IF(AND($F16="",$D16=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Urenverantwoording</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_Urenverantwoording</v>
       </c>
       <c r="B17" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_Urenverantwoording</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_Urenverantwoording</v>
       </c>
       <c r="C17" s="14" t="str">
         <f>IF(AND($F17="",$D17=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B18" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C18" s="14" t="str">
@@ -1405,71 +1406,71 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Bereikbaarheid stagebeleider</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_Bereikbaarheid stagebeleider</v>
       </c>
       <c r="B19" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_Bereikbaarheid stagebeleider</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_Bereikbaarheid stagebeleider</v>
       </c>
       <c r="C19" s="14" t="str">
         <f>IF(AND($F19="",$D19=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
         <v>79</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Ondertekening (Bedrijf)</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_Ondertekening (Bedrijf)</v>
       </c>
       <c r="B20" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_Ondertekening (Bedrijf)</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_Ondertekening (Bedrijf)</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>IF(AND($F20="",$D20=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_MBOSC_Mentor bereikbaarheid</v>
+        <f t="shared" si="1"/>
+        <v>Obj_MBOSC_Mentor bereikbaarheid</v>
       </c>
       <c r="B21" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_MBOSC_Mentor bereikbaarheid</v>
+        <f t="shared" si="0"/>
+        <v>Obj_MBOSC_Mentor bereikbaarheid</v>
       </c>
       <c r="C21" s="14" t="str">
         <f>IF(AND($F21="",$D21=""),"",'#Scopes'!$A$3)</f>
         <v>MBOSC</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
         <v>77</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1575,13 +1576,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1595,13 +1596,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1615,13 +1616,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1634,13 +1635,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1653,13 +1654,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1674,13 +1675,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1695,13 +1696,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1715,13 +1716,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1734,13 +1735,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1753,13 +1754,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1775,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1794,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1813,13 +1814,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1832,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1943,10 +1944,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1972,10 +1973,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2001,34 +2002,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_MBO Stage Contract.xlsx
+++ b/MPTrx/_MBO Stage Contract.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#Scopes" sheetId="1" r:id="rId1"/>
@@ -93,15 +93,9 @@
     <t>TTPhrase</t>
   </si>
   <si>
-    <t>[Organization,]</t>
-  </si>
-  <si>
     <t>[TParties]</t>
   </si>
   <si>
-    <t>tPartyReqdOrg</t>
-  </si>
-  <si>
     <t>mptrxObjName</t>
   </si>
   <si>
@@ -346,6 +340,12 @@
   </si>
   <si>
     <t>[Objectives]</t>
+  </si>
+  <si>
+    <t>tPartyReqdOrgRef</t>
+  </si>
+  <si>
+    <t>OrgRef</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>2</v>
@@ -818,10 +818,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -844,16 +844,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,16 +876,16 @@
     <col min="3" max="3" width="19" style="13" customWidth="1"/>
     <col min="4" max="4" width="18" style="13" customWidth="1"/>
     <col min="5" max="5" width="61.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="13" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>7</v>
@@ -894,10 +894,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -937,10 +937,10 @@
         <v>MBOSC</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -959,10 +959,10 @@
         <v>MBOSC</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="13"/>
@@ -981,10 +981,10 @@
         <v>MBOSC</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
@@ -1003,10 +1003,10 @@
         <v>MBOSC</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1034,10 +1034,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>7</v>
@@ -1087,13 +1087,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1110,13 +1110,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,13 +1133,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1156,13 +1156,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1179,10 +1179,10 @@
         <v>MBOSC</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1199,10 +1199,10 @@
         <v>MBOSC</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1264,13 +1264,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1287,13 +1287,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1310,13 +1310,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1333,13 +1333,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1356,13 +1356,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1379,13 +1379,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1418,13 +1418,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1441,13 +1441,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1464,13 +1464,13 @@
         <v>MBOSC</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1576,13 +1576,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1596,13 +1596,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1616,13 +1616,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1635,13 +1635,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1654,13 +1654,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1675,13 +1675,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1696,13 +1696,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1716,13 +1716,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1735,13 +1735,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1754,13 +1754,13 @@
         <v>MBOSC</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1795,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1814,13 +1814,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1833,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1944,10 +1944,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1973,10 +1973,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2002,34 +2002,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
